--- a/medicine/Enfance/Claire_Gratias/Claire_Gratias.xlsx
+++ b/medicine/Enfance/Claire_Gratias/Claire_Gratias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Gratias, née en 1964, est une autrice jeunesse française. Elle a longtemps été professeure de Lettres dans le secondaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Gratias, née en 1964, est une autrice jeunesse française. Elle a longtemps été professeure de Lettres dans le secondaire.
 </t>
         </is>
       </c>
@@ -513,10 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Romans
-liste non exhaustive[2]
-Une sonate pour Rudy, Syros, 2006  (ISBN 978-2-7485-1389-9) - Prix Sésame 2007[3]
-Breaking the wall, coll. Rat noir, Syros, 2009[4]
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>liste non exhaustive
+Une sonate pour Rudy, Syros, 2006  (ISBN 978-2-7485-1389-9) - Prix Sésame 2007
+Breaking the wall, coll. Rat noir, Syros, 2009
 Le Passager de l'orage, Syros, 2009
 L’Incroyable Voyage de Simon, Oskar Editeur, 2009
 Opération « Maurice », coll. Mini Syros Soon, Syros, 2010
@@ -531,15 +548,12 @@
 Orphans, Vol. 2. La Danse de l'hippocampe Paris, Rageot, 2013  (ISBN 978-2-7002-4274-4)
 Orphans, Vol. 3. Le Message de la lune Paris, Scrinéo Jeunesse, 2014  (ISBN 978-2-7002-4281-2)
 Un week-end sans fin, Syros, 2015
-L'été où j'ai vu le tueur[5], Rouergue, 2019  (ISBN 978-2-8126-1730-0)
+L'été où j'ai vu le tueur, Rouergue, 2019  (ISBN 978-2-8126-1730-0)
 Je voulais juste être libre, Le Muscadier, 2019  (ISBN 979-10-96935-32-1)
 Les yeux fermés, éditions Talents Hauts, 2019
 Marre d'être sage !, Le Muscadier, 2020
 Mortel printemps, Le Muscadier, 2021  (ISBN 979-10-96935-85-7)
-Ascendant cancer, Librinova, 2022
-Albums
-Arrête de lire !, ill. Sylvie Serprix, Belin, 2012[6]  (ISBN 9782701163161) 25e prix des incorruptibles[7], catégorie CE1
-Un ciel pistache, avec Chloé Fruy, Mazeto square, 2018</t>
+Ascendant cancer, Librinova, 2022</t>
         </is>
       </c>
     </row>
@@ -564,18 +578,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arrête de lire !, ill. Sylvie Serprix, Belin, 2012  (ISBN 9782701163161) 25e prix des incorruptibles, catégorie CE1
+Un ciel pistache, avec Chloé Fruy, Mazeto square, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claire_Gratias</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Gratias</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prix Sésame 2007[8] pour Une sonate pour Rudy
-Prix du roman historique jeunesse 2011[9] (du festival Les Rendez-vous de l'histoire) pour Breaking the Wall 
-Prix Ficelle 2013[10] pour Arrête de lire ! avec Sylvie Serprix
-Prix des Incorruptibles 2014[11] pour Arrête de lire ! avec Sylvie Serprix
- Prix Jacaranda 2015[12] pour Orphans, tome 1 : Double disparition
-Polar du meilleur roman jeunesse 2021[13] (du Festival Polar de Cognac) pour Mortel Printemps 
-Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[14] en 2024 : Le Passager de l'orage (2009).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix Sésame 2007 pour Une sonate pour Rudy
+Prix du roman historique jeunesse 2011 (du festival Les Rendez-vous de l'histoire) pour Breaking the Wall 
+Prix Ficelle 2013 pour Arrête de lire ! avec Sylvie Serprix
+Prix des Incorruptibles 2014 pour Arrête de lire ! avec Sylvie Serprix
+ Prix Jacaranda 2015 pour Orphans, tome 1 : Double disparition
+Polar du meilleur roman jeunesse 2021 (du Festival Polar de Cognac) pour Mortel Printemps 
+Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024 : Le Passager de l'orage (2009).
 </t>
         </is>
       </c>
